--- a/results/days/21/day_clusters21.xlsx
+++ b/results/days/21/day_clusters21.xlsx
@@ -7,27 +7,27 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 23" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 30" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 28" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 18" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 17" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 26" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 20" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 03" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 22" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 15" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 16" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 27" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 02" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 04" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 24" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 29" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 21" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 19" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 24" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 19" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 26" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 30" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 21" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 29" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 22" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 20" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 15" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 02" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 16" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 09 17" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019 10 03" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,15 +529,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 20.xlogmorning_new</t>
+          <t>antena3_2019 09 26_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -546,25 +656,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.406</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -585,13 +695,79 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 20.xlogafternoon_new</t>
+          <t>antena3_2019 09 26_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -604,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -622,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.322</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -643,6 +819,72 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -650,29 +892,12 @@
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.959</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -687,7 +912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,15 +1006,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 14.xlogmorning_new</t>
+          <t>antena3_2019 09 30_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -798,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -816,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -837,17 +1172,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 14.xlogafternoon_new</t>
+          <t>antena3_2019 09 30_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -856,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -865,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.043</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -874,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -895,17 +1296,83 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -922,7 +1389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,11 +1483,121 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 03.xlogmorning_new</t>
+          <t>antena3_2019 09 21_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1033,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1045,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1072,17 +1649,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 03.xlogafternoon_new</t>
+          <t>antena3_2019 09 21_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1097,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1130,19 +1773,102 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1157,7 +1883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,11 +1977,121 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 22.xlogmorning_new</t>
+          <t>antena3_2019 09 29_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1268,28 +2104,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.067</v>
+        <v>0.13</v>
       </c>
       <c r="L2" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1301,23 +2137,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.473</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 22.xlogafternoon_new</t>
+          <t>antena3_2019 09 29_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1347,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1365,36 +2267,85 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1409,7 +2360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,15 +2454,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 15.xlogmorning_new</t>
+          <t>antena3_2019 09 22_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1520,25 +2581,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H2" t="n">
-        <v>0.556</v>
+        <v>0.032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1559,17 +2620,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 15.xlogafternoon_new</t>
+          <t>antena3_2019 09 22_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1578,25 +2705,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H3" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.723</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1617,17 +2744,83 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1644,7 +2837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,11 +2931,121 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 16.xlogmorning_new</t>
+          <t>antena3_2019 09 28_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1755,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1782,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.991</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1794,17 +3097,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 16.xlogafternoon_new</t>
+          <t>antena3_2019 09 28_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1813,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1831,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1846,12 +3215,78 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1859,29 +3294,12 @@
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +3314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,15 +3408,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 27.xlogmorning_new</t>
+          <t>antena3_2019 09 25_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2007,25 +3535,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2040,23 +3568,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.654</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 27.xlogafternoon_new</t>
+          <t>antena3_2019 09 25_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2065,19 +3659,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.893</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2092,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2104,34 +3698,100 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.801</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>0.801</v>
+        <v>0.609</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2148,7 +3808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,30 +3902,140 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 02.xlogmorning_new</t>
+          <t>antena3_2019 09 20_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2277,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2298,13 +4068,79 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 02.xlogafternoon_new</t>
+          <t>antena3_2019 09 20_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2329,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -2356,6 +4192,72 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,29 +4265,12 @@
       <c r="B8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +4285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,15 +4379,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 04.xlogmorning_new</t>
+          <t>antena3_2019 09 15_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2517,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.654</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2547,29 +4542,95 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 04.xlogafternoon_new</t>
+          <t>antena3_2019 09 15_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2587,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -2608,36 +4669,85 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2652,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2746,15 +4856,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 24.xlogmorning_new</t>
+          <t>antena3_2019 10 02_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2796,23 +5016,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.991</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 24.xlogafternoon_new</t>
+          <t>antena3_2019 10 02_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2821,25 +5107,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -2860,34 +5146,100 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.801</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.801</v>
+        <v>0.877</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2904,7 +5256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,15 +5350,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 23.xlogmorning_new</t>
+          <t>antena3_2019 10 01_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3015,25 +5477,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="I2" t="n">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.405</v>
+        <v>0.113</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3048,23 +5510,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 23.xlogafternoon_new</t>
+          <t>antena3_2019 10 01_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3073,25 +5601,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3106,12 +5634,78 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3120,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3131,15 +5725,15 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.569</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3156,7 +5750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,15 +5844,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 29.xlogmorning_new</t>
+          <t>antena3_2019 09 16_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3288,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.982</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3300,23 +6004,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 29.xlogafternoon_new</t>
+          <t>antena3_2019 09 16_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3325,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3343,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3364,19 +6134,102 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3391,7 +6244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3485,15 +6338,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 21.xlogmorning_new</t>
+          <t>antena3_2019 09 17_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3511,19 +6474,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.643</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3541,17 +6504,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 21.xlogafternoon_new</t>
+          <t>antena3_2019 09 17_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3560,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3569,16 +6598,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.206</v>
+        <v>0.182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3599,19 +6628,102 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +6738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,15 +6832,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 19.xlogmorning_new</t>
+          <t>antena3_2019 10 03_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3743,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3755,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3773,20 +6995,86 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 19.xlogafternoon_new</t>
+          <t>antena3_2019 10 03_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3795,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3813,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3834,6 +7122,72 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3853,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.672</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3861,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.672</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3878,7 +7232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3972,15 +7326,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 25.xlogmorning_new</t>
+          <t>antena3_2019 10 04_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3989,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4007,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4022,23 +7486,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 25.xlogafternoon_new</t>
+          <t>antena3_2019 10 04_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4047,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4065,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.996</v>
+        <v>0.023</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4086,34 +7616,100 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.882</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.882</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4130,7 +7726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4224,15 +7820,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 01.xlogmorning_new</t>
+          <t>antena3_2019 09 27_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4247,19 +7953,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4274,23 +7980,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.913</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 10 01.xlogafternoon_new</t>
+          <t>antena3_2019 09 27_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4299,25 +8071,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4338,36 +8110,85 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.801</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +8203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4476,15 +8297,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 30.xlogmorning_new</t>
+          <t>antena3_2019 09 23_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4526,23 +8457,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 30.xlogafternoon_new</t>
+          <t>antena3_2019 09 23_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4551,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4563,13 +8560,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.388</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4590,34 +8587,100 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.801</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.801</v>
+        <v>0.877</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4634,7 +8697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4728,15 +8791,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 28.xlogmorning_new</t>
+          <t>antena3_2019 09 14_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4757,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4784,17 +8957,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 28.xlogafternoon_new</t>
+          <t>antena3_2019 09 14_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4809,19 +9048,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4842,17 +9081,83 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -4869,7 +9174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,15 +9268,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 18.xlogmorning_new</t>
+          <t>antena3_2019 09 24_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4980,13 +9395,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.651</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4998,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.318</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5019,17 +9434,83 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 18.xlogafternoon_new</t>
+          <t>antena3_2019 09 24_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5038,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5056,10 +9537,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="L3" t="n">
-        <v>0.953</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -5077,36 +9558,85 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.981</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5121,7 +9651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5215,15 +9745,125 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 17.xlogmorning_new</t>
+          <t>antena3_2019 09 19_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5241,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5250,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.832</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5265,23 +9905,89 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 17.xlogafternoon_new</t>
+          <t>antena3_2019 09 19_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5308,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5329,19 +10035,102 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5356,7 +10145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5450,11 +10239,121 @@
           <t>Topic_15</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_16</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_17</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_18</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_19</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_20</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_26</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_27</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_28</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_29</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_30</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_31</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_32</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_33</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_34</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_35</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_36</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Topic_37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 26.xlogmorning_new</t>
+          <t>antena3_2019 09 18_morning_new</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5479,13 +10378,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5506,23 +10405,89 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subtitles\antena3 HD_spa_TXT.st 2019 09 26.xlogafternoon_new</t>
+          <t>antena3_2019 09 18_afternoon_new</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5543,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.998</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5564,6 +10529,72 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5571,29 +10602,12 @@
       <c r="B8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
